--- a/Ofis Dosyalari/HAKEDISLER/2025/TEMMUZ 2025/2025 TEMMUZ AYI - AGREGA.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/TEMMUZ 2025/2025 TEMMUZ AYI - AGREGA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\TEMMUZ 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426A254A-F9BF-4BFF-BB75-4EF5AE1C7252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363C0434-E0F7-404D-BA36-9D4CEC52E2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>№</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>HAMRALI KURBONOV</t>
+  </si>
+  <si>
+    <t>PATENT</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -676,6 +679,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -684,7 +771,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -701,12 +788,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -799,6 +880,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,29 +910,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1116,11 +1218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1131,202 +1233,215 @@
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" ht="30.75" thickBot="1">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="K2" s="34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8">
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52">
         <v>200000</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10">
-        <f>F3-G3-H3</f>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55">
+        <f>F3-G3-H3-I3</f>
         <v>200000</v>
       </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="12">
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>372</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>280</v>
       </c>
-      <c r="F4" s="8">
-        <f>D4*E4</f>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F35" si="0">D4*E4</f>
         <v>104160</v>
       </c>
-      <c r="G4" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10">
-        <f>F4-G4-H4</f>
-        <v>79160</v>
-      </c>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="G4" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H4" s="7">
+        <v>850</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="8">
+        <f t="shared" ref="J4:J67" si="1">F4-G4-H4-I4</f>
+        <v>78310</v>
+      </c>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>319</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>410</v>
       </c>
-      <c r="F5" s="8">
-        <f>D5*E5</f>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
         <v>130790</v>
       </c>
-      <c r="G5" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10">
-        <f>F5-G5-H5</f>
-        <v>105790</v>
-      </c>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="G5" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="48">
+        <v>1200</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="1"/>
+        <v>104590</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>397</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>410</v>
       </c>
-      <c r="F6" s="8">
-        <f>D6*E6</f>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
         <v>162770</v>
       </c>
-      <c r="G6" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10">
-        <f>F6-G6-H6</f>
+      <c r="G6" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="8">
+        <f t="shared" si="1"/>
         <v>137770</v>
       </c>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="12">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>372</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>340</v>
       </c>
-      <c r="F7" s="8">
-        <f>D7*E7</f>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
         <v>126480</v>
       </c>
-      <c r="G7" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10">
-        <f>F7-G7-H7</f>
+      <c r="G7" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="8">
+        <f t="shared" si="1"/>
         <v>101480</v>
       </c>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1336,207 +1451,214 @@
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>326</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>450</v>
       </c>
-      <c r="F8" s="8">
-        <f>D8*E8</f>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
         <v>146700</v>
       </c>
-      <c r="G8" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10">
-        <f>F8-G8-H8</f>
+      <c r="G8" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="8">
+        <f t="shared" si="1"/>
         <v>121700</v>
       </c>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>399</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>410</v>
       </c>
-      <c r="F9" s="8">
-        <f>D9*E9</f>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
         <v>163590</v>
       </c>
-      <c r="G9" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10">
-        <f>F9-G9-H9</f>
+      <c r="G9" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="8">
+        <f t="shared" si="1"/>
         <v>138590</v>
       </c>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="12">
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>351</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>450</v>
       </c>
-      <c r="F10" s="8">
-        <f>D10*E10</f>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
         <v>157950</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>12500</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10">
-        <f>F10-G10-H10</f>
+      <c r="H10" s="7"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="8">
+        <f t="shared" si="1"/>
         <v>145450</v>
       </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>330</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>460</v>
       </c>
-      <c r="F11" s="8">
-        <f>D11*E11</f>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
         <v>151800</v>
       </c>
-      <c r="G11" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10">
-        <f>F11-G11-H11</f>
+      <c r="G11" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="8">
+        <f t="shared" si="1"/>
         <v>126800</v>
       </c>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <v>348</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>340</v>
       </c>
-      <c r="F12" s="8">
-        <f>D12*E12</f>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
         <v>118320</v>
       </c>
-      <c r="G12" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10">
-        <f>F12-G12-H12</f>
+      <c r="G12" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="8">
+        <f t="shared" si="1"/>
         <v>93320</v>
       </c>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="12">
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <v>340</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>430</v>
       </c>
-      <c r="F13" s="8">
-        <f>D13*E13</f>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
         <v>146200</v>
       </c>
-      <c r="G13" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10">
-        <f>F13-G13-H13</f>
+      <c r="G13" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="8">
+        <f t="shared" si="1"/>
         <v>121200</v>
       </c>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>358</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>420</v>
       </c>
-      <c r="F14" s="8">
-        <f>D14*E14</f>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
         <v>150360</v>
       </c>
-      <c r="G14" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10">
-        <f>F14-G14-H14</f>
+      <c r="G14" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="8">
+        <f t="shared" si="1"/>
         <v>125360</v>
       </c>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1546,26 +1668,27 @@
       <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <v>340</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>500</v>
       </c>
-      <c r="F15" s="8">
-        <f>D15*E15</f>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
         <v>170000</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10">
-        <f>F15-G15-H15</f>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="8">
+        <f t="shared" si="1"/>
         <v>170000</v>
       </c>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="12">
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
       <c r="B16" s="4">
@@ -1574,27 +1697,28 @@
       <c r="C16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <v>349</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>410</v>
       </c>
-      <c r="F16" s="8">
-        <f>D16*E16</f>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
         <v>143090</v>
       </c>
-      <c r="G16" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10">
-        <f>F16-G16-H16</f>
+      <c r="G16" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="8">
+        <f t="shared" si="1"/>
         <v>118090</v>
       </c>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1604,27 +1728,28 @@
       <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>289</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>450</v>
       </c>
-      <c r="F17" s="8">
-        <f>D17*E17</f>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
         <v>130050</v>
       </c>
-      <c r="G17" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10">
-        <f>F17-G17-H17</f>
+      <c r="G17" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="8">
+        <f t="shared" si="1"/>
         <v>105050</v>
       </c>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1634,26 +1759,27 @@
       <c r="C18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>344</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>450</v>
       </c>
-      <c r="F18" s="8">
-        <f>D18*E18</f>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
         <v>154800</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10">
-        <f>F18-G18-H18</f>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="8">
+        <f t="shared" si="1"/>
         <v>154800</v>
       </c>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="12">
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
       <c r="B19" s="4">
@@ -1662,27 +1788,28 @@
       <c r="C19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>339</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="14">
         <v>410</v>
       </c>
-      <c r="F19" s="8">
-        <f>D19*E19</f>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
         <v>138990</v>
       </c>
-      <c r="G19" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10">
-        <f>F19-G19-H19</f>
+      <c r="G19" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="8">
+        <f t="shared" si="1"/>
         <v>113990</v>
       </c>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1692,27 +1819,28 @@
       <c r="C20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>317</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>390</v>
       </c>
-      <c r="F20" s="8">
-        <f>D20*E20</f>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
         <v>123630</v>
       </c>
-      <c r="G20" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10">
-        <f>F20-G20-H20</f>
+      <c r="G20" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="8">
+        <f t="shared" si="1"/>
         <v>98630</v>
       </c>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1722,87 +1850,90 @@
       <c r="C21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>337</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>450</v>
       </c>
-      <c r="F21" s="8">
-        <f>D21*E21</f>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
         <v>151650</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="7">
         <v>12500</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10">
-        <f>F21-G21-H21</f>
+      <c r="H21" s="7"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="8">
+        <f t="shared" si="1"/>
         <v>139150</v>
       </c>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="12">
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>154</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>372</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="14">
         <v>440</v>
       </c>
-      <c r="F22" s="8">
-        <f>D22*E22</f>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
         <v>163680</v>
       </c>
-      <c r="G22" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10">
-        <f>F22-G22-H22</f>
+      <c r="G22" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="8">
+        <f t="shared" si="1"/>
         <v>138680</v>
       </c>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>156</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>357</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="14">
         <v>410</v>
       </c>
-      <c r="F23" s="8">
-        <f>D23*E23</f>
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
         <v>146370</v>
       </c>
-      <c r="G23" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10">
-        <f>F23-G23-H23</f>
+      <c r="G23" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="8">
+        <f t="shared" si="1"/>
         <v>121370</v>
       </c>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1812,1417 +1943,1472 @@
       <c r="C24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <v>352</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="14">
         <v>500</v>
       </c>
-      <c r="F24" s="8">
-        <f>D24*E24</f>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
         <v>176000</v>
       </c>
-      <c r="G24" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10">
-        <f>F24-G24-H24</f>
+      <c r="G24" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="8">
+        <f t="shared" si="1"/>
         <v>151000</v>
       </c>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="12">
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="11">
         <v>188</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>372</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>350</v>
       </c>
-      <c r="F25" s="8">
-        <f>D25*E25</f>
+      <c r="F25" s="6">
+        <f t="shared" si="0"/>
         <v>130200</v>
       </c>
-      <c r="G25" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10">
-        <f>F25-G25-H25</f>
+      <c r="G25" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="8">
+        <f t="shared" si="1"/>
         <v>105200</v>
       </c>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="15">
         <v>222</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="13">
         <v>312</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>420</v>
       </c>
-      <c r="F26" s="8">
-        <f>D26*E26</f>
+      <c r="F26" s="6">
+        <f t="shared" si="0"/>
         <v>131040</v>
       </c>
-      <c r="G26" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10">
-        <f>F26-G26-H26</f>
+      <c r="G26" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="8">
+        <f t="shared" si="1"/>
         <v>106040</v>
       </c>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="19">
         <v>229</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>340</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="14">
         <v>350</v>
       </c>
-      <c r="F27" s="8">
-        <f>D27*E27</f>
+      <c r="F27" s="6">
+        <f t="shared" si="0"/>
         <v>119000</v>
       </c>
-      <c r="G27" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10">
-        <f>F27-G27-H27</f>
+      <c r="G27" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="8">
+        <f t="shared" si="1"/>
         <v>94000</v>
       </c>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="12">
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A28" s="10">
         <v>26</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="19">
         <v>231</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="13">
         <v>344</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="14">
         <v>410</v>
       </c>
-      <c r="F28" s="8">
-        <f>D28*E28</f>
+      <c r="F28" s="6">
+        <f t="shared" si="0"/>
         <v>141040</v>
       </c>
-      <c r="G28" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10">
-        <f>F28-G28-H28</f>
+      <c r="G28" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="8">
+        <f t="shared" si="1"/>
         <v>116040</v>
       </c>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="19">
         <v>232</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="13">
         <v>351</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="14">
         <v>400</v>
       </c>
-      <c r="F29" s="8">
-        <f>D29*E29</f>
+      <c r="F29" s="6">
+        <f t="shared" si="0"/>
         <v>140400</v>
       </c>
-      <c r="G29" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10">
-        <f>F29-G29-H29</f>
+      <c r="G29" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="8">
+        <f t="shared" si="1"/>
         <v>115400</v>
       </c>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="20">
         <v>241</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="13">
         <v>331</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <v>420</v>
       </c>
-      <c r="F30" s="8">
-        <f>D30*E30</f>
+      <c r="F30" s="6">
+        <f t="shared" si="0"/>
         <v>139020</v>
       </c>
-      <c r="G30" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10">
-        <f>F30-G30-H30</f>
+      <c r="G30" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="8">
+        <f t="shared" si="1"/>
         <v>114020</v>
       </c>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="12">
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A31" s="10">
         <v>29</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="20">
         <v>242</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="13">
         <v>342</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="14">
         <v>420</v>
       </c>
-      <c r="F31" s="8">
-        <f>D31*E31</f>
+      <c r="F31" s="6">
+        <f t="shared" si="0"/>
         <v>143640</v>
       </c>
-      <c r="G31" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10">
-        <f>F31-G31-H31</f>
+      <c r="G31" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="8">
+        <f t="shared" si="1"/>
         <v>118640</v>
       </c>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="20">
         <v>243</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="13">
         <v>331</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="14">
         <v>430</v>
       </c>
-      <c r="F32" s="8">
-        <f>D32*E32</f>
+      <c r="F32" s="6">
+        <f t="shared" si="0"/>
         <v>142330</v>
       </c>
-      <c r="G32" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10">
-        <f>F32-G32-H32</f>
+      <c r="G32" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="8">
+        <f t="shared" si="1"/>
         <v>117330</v>
       </c>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K32" s="15"/>
+    </row>
+    <row r="33" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="19">
         <v>284</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="13">
         <v>329</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="14">
         <v>420</v>
       </c>
-      <c r="F33" s="8">
-        <f>D33*E33</f>
+      <c r="F33" s="6">
+        <f t="shared" si="0"/>
         <v>138180</v>
       </c>
-      <c r="G33" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10">
-        <f>F33-G33-H33</f>
+      <c r="G33" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="8">
+        <f t="shared" si="1"/>
         <v>113180</v>
       </c>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="12">
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A34" s="10">
         <v>32</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="15">
         <v>288</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="13">
         <v>396</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="14">
         <v>400</v>
       </c>
-      <c r="F34" s="8">
-        <f>D34*E34</f>
+      <c r="F34" s="6">
+        <f t="shared" si="0"/>
         <v>158400</v>
       </c>
-      <c r="G34" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10">
-        <f>F34-G34-H34</f>
+      <c r="G34" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="8">
+        <f t="shared" si="1"/>
         <v>133400</v>
       </c>
-      <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="19">
         <v>291</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="13">
         <v>318</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="14">
         <v>390</v>
       </c>
-      <c r="F35" s="8">
-        <f>D35*E35</f>
+      <c r="F35" s="6">
+        <f t="shared" si="0"/>
         <v>124020</v>
       </c>
-      <c r="G35" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10">
-        <f>F35-G35-H35</f>
+      <c r="G35" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="8">
+        <f t="shared" si="1"/>
         <v>99020</v>
       </c>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K35" s="15"/>
+    </row>
+    <row r="36" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="19">
         <v>294</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="13">
         <v>344</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="14">
         <v>410</v>
       </c>
-      <c r="F36" s="8">
-        <f>D36*E36</f>
+      <c r="F36" s="6">
+        <f t="shared" ref="F36:F67" si="2">D36*E36</f>
         <v>141040</v>
       </c>
-      <c r="G36" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10">
-        <f>F36-G36-H36</f>
+      <c r="G36" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="8">
+        <f t="shared" si="1"/>
         <v>116040</v>
       </c>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="12">
+      <c r="K36" s="15"/>
+    </row>
+    <row r="37" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A37" s="10">
         <v>35</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="18">
         <v>306</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="13">
         <v>317</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="14">
         <v>390</v>
       </c>
-      <c r="F37" s="8">
-        <f>D37*E37</f>
+      <c r="F37" s="6">
+        <f t="shared" si="2"/>
         <v>123630</v>
       </c>
-      <c r="G37" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10">
-        <f>F37-G37-H37</f>
+      <c r="G37" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="8">
+        <f t="shared" si="1"/>
         <v>98630</v>
       </c>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K37" s="15"/>
+    </row>
+    <row r="38" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="19">
         <v>308</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="13">
         <v>346</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="14">
         <v>370</v>
       </c>
-      <c r="F38" s="8">
-        <f>D38*E38</f>
+      <c r="F38" s="6">
+        <f t="shared" si="2"/>
         <v>128020</v>
       </c>
-      <c r="G38" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10">
-        <f>F38-G38-H38</f>
+      <c r="G38" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="8">
+        <f t="shared" si="1"/>
         <v>103020</v>
       </c>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="15">
         <v>309</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="13">
         <v>354</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="14">
         <v>380</v>
       </c>
-      <c r="F39" s="8">
-        <f>D39*E39</f>
+      <c r="F39" s="6">
+        <f t="shared" si="2"/>
         <v>134520</v>
       </c>
-      <c r="G39" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10">
-        <f>F39-G39-H39</f>
+      <c r="G39" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="8">
+        <f t="shared" si="1"/>
         <v>109520</v>
       </c>
-      <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A40" s="12">
+      <c r="K39" s="15"/>
+    </row>
+    <row r="40" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A40" s="10">
         <v>38</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="15">
         <v>314</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="13">
         <v>332</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="14">
         <v>380</v>
       </c>
-      <c r="F40" s="8">
-        <f>D40*E40</f>
+      <c r="F40" s="6">
+        <f t="shared" si="2"/>
         <v>126160</v>
       </c>
-      <c r="G40" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10">
-        <f>F40-G40-H40</f>
+      <c r="G40" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="8">
+        <f t="shared" si="1"/>
         <v>101160</v>
       </c>
-      <c r="J40" s="17"/>
-    </row>
-    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="19">
         <v>321</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="13">
         <v>373</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="14">
         <v>390</v>
       </c>
-      <c r="F41" s="8">
-        <f>D41*E41</f>
+      <c r="F41" s="6">
+        <f t="shared" si="2"/>
         <v>145470</v>
       </c>
-      <c r="G41" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10">
-        <f>F41-G41-H41</f>
+      <c r="G41" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="8">
+        <f t="shared" si="1"/>
         <v>120470</v>
       </c>
-      <c r="J41" s="17"/>
-    </row>
-    <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="15">
         <v>337</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="13">
         <v>324</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="14">
         <v>380</v>
       </c>
-      <c r="F42" s="8">
-        <f>D42*E42</f>
+      <c r="F42" s="6">
+        <f t="shared" si="2"/>
         <v>123120</v>
       </c>
-      <c r="G42" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10">
-        <f>F42-G42-H42</f>
+      <c r="G42" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="8">
+        <f t="shared" si="1"/>
         <v>98120</v>
       </c>
-      <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="12">
+      <c r="K42" s="15"/>
+    </row>
+    <row r="43" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A43" s="10">
         <v>41</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="19">
         <v>341</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="13">
         <v>340</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="14">
         <v>390</v>
       </c>
-      <c r="F43" s="8">
-        <f>D43*E43</f>
+      <c r="F43" s="6">
+        <f t="shared" si="2"/>
         <v>132600</v>
       </c>
-      <c r="G43" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10">
-        <f>F43-G43-H43</f>
+      <c r="G43" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="8">
+        <f t="shared" si="1"/>
         <v>107600</v>
       </c>
-      <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K43" s="15"/>
+    </row>
+    <row r="44" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="15">
         <v>346</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="23">
         <v>355</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="14">
         <v>380</v>
       </c>
-      <c r="F44" s="8">
-        <f>D44*E44</f>
+      <c r="F44" s="6">
+        <f t="shared" si="2"/>
         <v>134900</v>
       </c>
-      <c r="G44" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10">
-        <f>F44-G44-H44</f>
+      <c r="G44" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="8">
+        <f t="shared" si="1"/>
         <v>109900</v>
       </c>
-      <c r="J44" s="17"/>
-    </row>
-    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K44" s="15"/>
+    </row>
+    <row r="45" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="15">
         <v>347</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="23">
         <v>351</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="14">
         <v>380</v>
       </c>
-      <c r="F45" s="8">
-        <f>D45*E45</f>
+      <c r="F45" s="6">
+        <f t="shared" si="2"/>
         <v>133380</v>
       </c>
-      <c r="G45" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10">
-        <f>F45-G45-H45</f>
+      <c r="G45" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="8">
+        <f t="shared" si="1"/>
         <v>108380</v>
       </c>
-      <c r="J45" s="17"/>
-    </row>
-    <row r="46" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A46" s="12">
+      <c r="K45" s="15"/>
+    </row>
+    <row r="46" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A46" s="10">
         <v>44</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="15">
         <v>354</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="13">
         <v>336</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="14">
         <v>400</v>
       </c>
-      <c r="F46" s="8">
-        <f>D46*E46</f>
+      <c r="F46" s="6">
+        <f t="shared" si="2"/>
         <v>134400</v>
       </c>
-      <c r="G46" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10">
-        <f>F46-G46-H46</f>
+      <c r="G46" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="8">
+        <f t="shared" si="1"/>
         <v>109400</v>
       </c>
-      <c r="J46" s="17"/>
-    </row>
-    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K46" s="15"/>
+    </row>
+    <row r="47" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="19">
         <v>355</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="13">
         <v>314</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="14">
         <v>410</v>
       </c>
-      <c r="F47" s="8">
-        <f>D47*E47</f>
+      <c r="F47" s="6">
+        <f t="shared" si="2"/>
         <v>128740</v>
       </c>
-      <c r="G47" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="10">
-        <f>F47-G47-H47</f>
+      <c r="G47" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="8">
+        <f t="shared" si="1"/>
         <v>103740</v>
       </c>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K47" s="15"/>
+    </row>
+    <row r="48" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="15">
         <v>357</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="13">
         <v>324</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="14">
         <v>400</v>
       </c>
-      <c r="F48" s="8">
-        <f>D48*E48</f>
+      <c r="F48" s="6">
+        <f t="shared" si="2"/>
         <v>129600</v>
       </c>
-      <c r="G48" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="10">
-        <f>F48-G48-H48</f>
+      <c r="G48" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="8">
+        <f t="shared" si="1"/>
         <v>104600</v>
       </c>
-      <c r="J48" s="17"/>
-    </row>
-    <row r="49" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A49" s="12">
+      <c r="K48" s="15"/>
+    </row>
+    <row r="49" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A49" s="10">
         <v>47</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="15">
         <v>359</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="13">
         <v>309</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="14">
         <v>400</v>
       </c>
-      <c r="F49" s="8">
-        <f>D49*E49</f>
+      <c r="F49" s="6">
+        <f t="shared" si="2"/>
         <v>123600</v>
       </c>
-      <c r="G49" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10">
-        <f>F49-G49-H49</f>
+      <c r="G49" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="8">
+        <f t="shared" si="1"/>
         <v>98600</v>
       </c>
-      <c r="J49" s="17"/>
-    </row>
-    <row r="50" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="K49" s="15"/>
+    </row>
+    <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="45">
+      <c r="B50" s="40">
         <v>367</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="47">
+      <c r="D50" s="42">
         <v>239</v>
       </c>
-      <c r="E50" s="48">
+      <c r="E50" s="43">
         <v>380</v>
       </c>
-      <c r="F50" s="8">
-        <f>D50*E50</f>
+      <c r="F50" s="6">
+        <f t="shared" si="2"/>
         <v>90820</v>
       </c>
-      <c r="G50" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="49">
-        <f>F50-G50-H50</f>
-        <v>65820</v>
-      </c>
-      <c r="J50" s="50"/>
-      <c r="K50" s="35"/>
-    </row>
-    <row r="51" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="G50" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="48">
+        <v>14237</v>
+      </c>
+      <c r="J50" s="8">
+        <f t="shared" si="1"/>
+        <v>51583</v>
+      </c>
+      <c r="K50" s="44"/>
+      <c r="L50" s="33"/>
+    </row>
+    <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="19">
         <v>368</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="13">
         <v>335</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="14">
         <v>390</v>
       </c>
-      <c r="F51" s="8">
-        <f>D51*E51</f>
+      <c r="F51" s="6">
+        <f t="shared" si="2"/>
         <v>130650</v>
       </c>
-      <c r="G51" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="10">
-        <f>F51-G51-H51</f>
+      <c r="G51" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="8">
+        <f t="shared" si="1"/>
         <v>105650</v>
       </c>
-      <c r="J51" s="17"/>
-    </row>
-    <row r="52" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A52" s="12">
+      <c r="K51" s="15"/>
+    </row>
+    <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A52" s="10">
         <v>50</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="15">
         <v>376</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="13">
         <v>337</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="14">
         <v>360</v>
       </c>
-      <c r="F52" s="8">
-        <f>D52*E52</f>
+      <c r="F52" s="6">
+        <f t="shared" si="2"/>
         <v>121320</v>
       </c>
-      <c r="G52" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="10">
-        <f>F52-G52-H52</f>
+      <c r="G52" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="8">
+        <f t="shared" si="1"/>
         <v>96320</v>
       </c>
-      <c r="J52" s="17"/>
-    </row>
-    <row r="53" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="K52" s="15"/>
+    </row>
+    <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="19">
         <v>382</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="13">
         <v>333</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="14">
         <v>400</v>
       </c>
-      <c r="F53" s="8">
-        <f>D53*E53</f>
+      <c r="F53" s="6">
+        <f t="shared" si="2"/>
         <v>133200</v>
       </c>
-      <c r="G53" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="10">
-        <f>F53-G53-H53</f>
+      <c r="G53" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="8">
+        <f t="shared" si="1"/>
         <v>108200</v>
       </c>
-      <c r="J53" s="17"/>
-    </row>
-    <row r="54" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="K53" s="15"/>
+    </row>
+    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="15">
         <v>385</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="13">
         <v>347</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="14">
         <v>430</v>
       </c>
-      <c r="F54" s="8">
-        <f>D54*E54</f>
+      <c r="F54" s="6">
+        <f t="shared" si="2"/>
         <v>149210</v>
       </c>
-      <c r="G54" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="10">
-        <f>F54-G54-H54</f>
+      <c r="G54" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="8">
+        <f t="shared" si="1"/>
         <v>124210</v>
       </c>
-      <c r="J54" s="17"/>
-    </row>
-    <row r="55" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A55" s="12">
+      <c r="K54" s="15"/>
+    </row>
+    <row r="55" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A55" s="10">
         <v>53</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="15">
         <v>389</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="13">
         <v>313</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="14">
         <v>380</v>
       </c>
-      <c r="F55" s="8">
-        <f>D55*E55</f>
+      <c r="F55" s="6">
+        <f t="shared" si="2"/>
         <v>118940</v>
       </c>
-      <c r="G55" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="10">
-        <f>F55-G55-H55</f>
-        <v>93940</v>
-      </c>
-      <c r="J55" s="17"/>
-    </row>
-    <row r="56" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="G55" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="48">
+        <v>14884</v>
+      </c>
+      <c r="J55" s="8">
+        <f t="shared" si="1"/>
+        <v>79056</v>
+      </c>
+      <c r="K55" s="15"/>
+    </row>
+    <row r="56" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="19">
         <v>390</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="13">
         <v>331</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="14">
         <v>410</v>
       </c>
-      <c r="F56" s="8">
-        <f>D56*E56</f>
+      <c r="F56" s="6">
+        <f t="shared" si="2"/>
         <v>135710</v>
       </c>
-      <c r="G56" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="10">
-        <f>F56-G56-H56</f>
+      <c r="G56" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="8">
+        <f t="shared" si="1"/>
         <v>110710</v>
       </c>
-      <c r="J56" s="17"/>
-    </row>
-    <row r="57" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="K56" s="15"/>
+    </row>
+    <row r="57" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="15">
         <v>392</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="13">
         <v>349</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="14">
         <v>380</v>
       </c>
-      <c r="F57" s="8">
-        <f>D57*E57</f>
+      <c r="F57" s="6">
+        <f t="shared" si="2"/>
         <v>132620</v>
       </c>
-      <c r="G57" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="10">
-        <f>F57-G57-H57</f>
-        <v>107620</v>
-      </c>
-      <c r="J57" s="17"/>
-    </row>
-    <row r="58" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A58" s="12">
+      <c r="G57" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="48">
+        <v>1200</v>
+      </c>
+      <c r="J57" s="8">
+        <f t="shared" si="1"/>
+        <v>106420</v>
+      </c>
+      <c r="K57" s="15"/>
+    </row>
+    <row r="58" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A58" s="10">
         <v>56</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="15">
         <v>396</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="13">
         <v>238</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="14">
         <v>350</v>
       </c>
-      <c r="F58" s="8">
-        <f>D58*E58</f>
+      <c r="F58" s="6">
+        <f t="shared" si="2"/>
         <v>83300</v>
       </c>
-      <c r="G58" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="10">
-        <f>F58-G58-H58</f>
-        <v>58300</v>
-      </c>
-      <c r="J58" s="17"/>
-    </row>
-    <row r="59" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="G58" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="48">
+        <v>22200</v>
+      </c>
+      <c r="J58" s="8">
+        <f t="shared" si="1"/>
+        <v>36100</v>
+      </c>
+      <c r="K58" s="15"/>
+    </row>
+    <row r="59" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="3">
         <v>57</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="15">
         <v>397</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="13">
         <v>345</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="14">
         <v>380</v>
       </c>
-      <c r="F59" s="8">
-        <f>D59*E59</f>
+      <c r="F59" s="6">
+        <f t="shared" si="2"/>
         <v>131100</v>
       </c>
-      <c r="G59" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="10">
-        <f>F59-G59-H59</f>
+      <c r="G59" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="8">
+        <f t="shared" si="1"/>
         <v>106100</v>
       </c>
-      <c r="J59" s="17"/>
-    </row>
-    <row r="60" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="K59" s="15"/>
+    </row>
+    <row r="60" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="15">
         <v>402</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="13">
         <v>390</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="14">
         <v>370</v>
       </c>
-      <c r="F60" s="8">
-        <f>D60*E60</f>
+      <c r="F60" s="6">
+        <f t="shared" si="2"/>
         <v>144300</v>
       </c>
-      <c r="G60" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="10">
-        <f>F60-G60-H60</f>
+      <c r="G60" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H60" s="7"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="8">
+        <f t="shared" si="1"/>
         <v>119300</v>
       </c>
-      <c r="J60" s="17"/>
-    </row>
-    <row r="61" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A61" s="12">
+      <c r="K60" s="15"/>
+    </row>
+    <row r="61" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A61" s="10">
         <v>59</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="15">
         <v>406</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="13">
         <v>337</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="14">
         <v>330</v>
       </c>
-      <c r="F61" s="8">
-        <f>D61*E61</f>
+      <c r="F61" s="6">
+        <f t="shared" si="2"/>
         <v>111210</v>
       </c>
-      <c r="G61" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="10">
-        <f>F61-G61-H61</f>
+      <c r="G61" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="8">
+        <f t="shared" si="1"/>
         <v>86210</v>
       </c>
-      <c r="J61" s="17"/>
-    </row>
-    <row r="62" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="K61" s="15"/>
+    </row>
+    <row r="62" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="15">
         <v>410</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="13">
         <v>377</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="14">
         <v>350</v>
       </c>
-      <c r="F62" s="8">
-        <f>D62*E62</f>
+      <c r="F62" s="6">
+        <f t="shared" si="2"/>
         <v>131950</v>
       </c>
-      <c r="G62" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="10">
-        <f>F62-G62-H62</f>
+      <c r="G62" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="8">
+        <f t="shared" si="1"/>
         <v>106950</v>
       </c>
-      <c r="J62" s="17"/>
-    </row>
-    <row r="63" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="K62" s="15"/>
+    </row>
+    <row r="63" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="3">
         <v>61</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="15">
         <v>411</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="13">
         <v>351</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="14">
         <v>370</v>
       </c>
-      <c r="F63" s="8">
-        <f>D63*E63</f>
+      <c r="F63" s="6">
+        <f t="shared" si="2"/>
         <v>129870</v>
       </c>
-      <c r="G63" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="10">
-        <f>F63-G63-H63</f>
+      <c r="G63" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="8">
+        <f t="shared" si="1"/>
         <v>104870</v>
       </c>
-      <c r="J63" s="17"/>
-    </row>
-    <row r="64" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A64" s="12">
+      <c r="K63" s="15"/>
+    </row>
+    <row r="64" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A64" s="10">
         <v>62</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="15">
         <v>415</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="13">
         <v>319</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="14">
         <v>370</v>
       </c>
-      <c r="F64" s="8">
-        <f>D64*E64</f>
+      <c r="F64" s="6">
+        <f t="shared" si="2"/>
         <v>118030</v>
       </c>
-      <c r="G64" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="10">
-        <f>F64-G64-H64</f>
+      <c r="G64" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="8">
+        <f t="shared" si="1"/>
         <v>93030</v>
       </c>
-      <c r="J64" s="17"/>
-    </row>
-    <row r="65" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K64" s="15"/>
+    </row>
+    <row r="65" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="3">
         <v>63</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="15">
         <v>416</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="13">
         <v>379</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="14">
         <v>360</v>
       </c>
-      <c r="F65" s="8">
-        <f>D65*E65</f>
+      <c r="F65" s="6">
+        <f t="shared" si="2"/>
         <v>136440</v>
       </c>
-      <c r="G65" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="10">
-        <f>F65-G65-H65</f>
+      <c r="G65" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H65" s="7"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="8">
+        <f t="shared" si="1"/>
         <v>111440</v>
       </c>
-      <c r="J65" s="17"/>
-    </row>
-    <row r="66" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K65" s="15"/>
+    </row>
+    <row r="66" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="15">
         <v>422</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="13">
         <v>361</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="14">
         <v>350</v>
       </c>
-      <c r="F66" s="8">
-        <f>D66*E66</f>
+      <c r="F66" s="6">
+        <f t="shared" si="2"/>
         <v>126350</v>
       </c>
-      <c r="G66" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="10">
-        <f>F66-G66-H66</f>
+      <c r="G66" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="8">
+        <f t="shared" si="1"/>
         <v>101350</v>
       </c>
-      <c r="J66" s="17"/>
-    </row>
-    <row r="67" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A67" s="12">
+      <c r="K66" s="15"/>
+    </row>
+    <row r="67" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A67" s="10">
         <v>65</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="15">
         <v>424</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="13">
         <v>341</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="14">
         <v>380</v>
       </c>
-      <c r="F67" s="8">
-        <f>D67*E67</f>
+      <c r="F67" s="6">
+        <f t="shared" si="2"/>
         <v>129580</v>
       </c>
-      <c r="G67" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="10">
-        <f>F67-G67-H67</f>
+      <c r="G67" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="8">
+        <f t="shared" si="1"/>
         <v>104580</v>
       </c>
-      <c r="J67" s="17"/>
-    </row>
-    <row r="68" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K67" s="15"/>
+    </row>
+    <row r="68" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="15">
         <v>426</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="13">
         <v>363</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="14">
         <v>350</v>
       </c>
-      <c r="F68" s="8">
-        <f>D68*E68</f>
+      <c r="F68" s="6">
+        <f t="shared" ref="F68:F99" si="3">D68*E68</f>
         <v>127050</v>
       </c>
-      <c r="G68" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="10">
-        <f>F68-G68-H68</f>
+      <c r="G68" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="8">
+        <f t="shared" ref="J68:J70" si="4">F68-G68-H68-I68</f>
         <v>102050</v>
       </c>
-      <c r="J68" s="17"/>
-    </row>
-    <row r="69" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="K68" s="15"/>
+    </row>
+    <row r="69" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="3">
         <v>67</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="15">
         <v>434</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="13">
         <v>297</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="14">
         <v>350</v>
       </c>
-      <c r="F69" s="8">
-        <f>D69*E69</f>
+      <c r="F69" s="6">
+        <f t="shared" si="3"/>
         <v>103950</v>
       </c>
-      <c r="G69" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="10">
-        <f>F69-G69-H69</f>
+      <c r="G69" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="8">
+        <f t="shared" si="4"/>
         <v>78950</v>
       </c>
-      <c r="J69" s="17"/>
-    </row>
-    <row r="70" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A70" s="27">
+      <c r="K69" s="15"/>
+    </row>
+    <row r="70" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A70" s="25">
         <v>68</v>
       </c>
-      <c r="B70" s="28">
+      <c r="B70" s="26">
         <v>437</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D70" s="30">
+      <c r="D70" s="28">
         <v>349</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="29">
         <v>400</v>
       </c>
-      <c r="F70" s="32">
-        <f>D70*E70</f>
+      <c r="F70" s="30">
+        <f t="shared" si="3"/>
         <v>139600</v>
       </c>
-      <c r="G70" s="33">
-        <v>25000</v>
-      </c>
-      <c r="H70" s="33"/>
-      <c r="I70" s="34">
-        <f>F70-G70-H70</f>
+      <c r="G70" s="31">
+        <v>25000</v>
+      </c>
+      <c r="H70" s="31"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="32">
+        <f t="shared" si="4"/>
         <v>114600</v>
       </c>
-      <c r="J70" s="28"/>
-    </row>
-    <row r="71" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1"/>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1">
-      <c r="I72" s="39">
-        <f>SUM(I3:I71)</f>
-        <v>7629030</v>
+      <c r="K70" s="26"/>
+    </row>
+    <row r="71" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1"/>
+    <row r="72" spans="1:11" ht="15.75" thickBot="1">
+      <c r="J72" s="37">
+        <f>SUM(J3:J71)</f>
+        <v>7574459</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ofis Dosyalari/HAKEDISLER/2025/TEMMUZ 2025/2025 TEMMUZ AYI - AGREGA.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/TEMMUZ 2025/2025 TEMMUZ AYI - AGREGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\TEMMUZ 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363C0434-E0F7-404D-BA36-9D4CEC52E2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984B06E0-A905-44B3-8DAB-14D02EC1E25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>№</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>PATENT</t>
+  </si>
+  <si>
+    <t>HAZIRAN TEMMUZ AGUSTOS HESABI KESILDI</t>
   </si>
 </sst>
 </file>
@@ -382,12 +385,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="28">
@@ -771,7 +780,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -901,6 +910,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,30 +943,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal 2" xfId="3" xr:uid="{2DBF412A-52F2-4DDA-8EDC-0DB555BA7380}"/>
@@ -1222,7 +1232,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1233,28 +1243,29 @@
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A1" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
-    </row>
-    <row r="2" spans="1:11" ht="30.75" thickBot="1">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1299,21 +1310,21 @@
       <c r="C3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52">
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49">
         <v>200000</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55">
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52">
         <f>F3-G3-H3-I3</f>
         <v>200000</v>
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1339,14 +1350,14 @@
       <c r="H4" s="7">
         <v>850</v>
       </c>
-      <c r="I4" s="48"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="8">
         <f t="shared" ref="J4:J67" si="1">F4-G4-H4-I4</f>
         <v>78310</v>
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1370,7 +1381,7 @@
         <v>25000</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="48">
+      <c r="I5" s="45">
         <v>1200</v>
       </c>
       <c r="J5" s="8">
@@ -1379,7 +1390,7 @@
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1403,14 +1414,14 @@
         <v>25000</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="48"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="8">
         <f t="shared" si="1"/>
         <v>137770</v>
       </c>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1434,14 +1445,19 @@
         <v>25000</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="48"/>
+      <c r="I7" s="45">
+        <v>101480</v>
+      </c>
       <c r="J7" s="8">
         <f t="shared" si="1"/>
-        <v>101480</v>
+        <v>0</v>
       </c>
       <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L7" s="56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1464,15 +1480,17 @@
       <c r="G8" s="7">
         <v>25000</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="48"/>
+      <c r="H8" s="7">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="45"/>
       <c r="J8" s="8">
         <f t="shared" si="1"/>
-        <v>121700</v>
+        <v>116700</v>
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1496,14 +1514,14 @@
         <v>25000</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="48"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="8">
         <f t="shared" si="1"/>
         <v>138590</v>
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1527,14 +1545,14 @@
         <v>12500</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="48"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="8">
         <f t="shared" si="1"/>
         <v>145450</v>
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1557,15 +1575,17 @@
       <c r="G11" s="7">
         <v>25000</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="48"/>
+      <c r="H11" s="7">
+        <v>15000</v>
+      </c>
+      <c r="I11" s="45"/>
       <c r="J11" s="8">
         <f t="shared" si="1"/>
-        <v>126800</v>
+        <v>111800</v>
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1589,14 +1609,14 @@
         <v>25000</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="48"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="8">
         <f t="shared" si="1"/>
         <v>93320</v>
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1620,14 +1640,14 @@
         <v>25000</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="48"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="8">
         <f t="shared" si="1"/>
         <v>121200</v>
       </c>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1651,14 +1671,14 @@
         <v>25000</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="48"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="8">
         <f t="shared" si="1"/>
         <v>125360</v>
       </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1680,14 +1700,14 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="48"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="8">
         <f t="shared" si="1"/>
         <v>170000</v>
       </c>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -1711,7 +1731,7 @@
         <v>25000</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="48"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="8">
         <f t="shared" si="1"/>
         <v>118090</v>
@@ -1742,7 +1762,7 @@
         <v>25000</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="48"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="8">
         <f t="shared" si="1"/>
         <v>105050</v>
@@ -1771,7 +1791,7 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="48"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="8">
         <f t="shared" si="1"/>
         <v>154800</v>
@@ -1802,7 +1822,7 @@
         <v>25000</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="48"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="8">
         <f t="shared" si="1"/>
         <v>113990</v>
@@ -1833,7 +1853,7 @@
         <v>25000</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="48"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="8">
         <f t="shared" si="1"/>
         <v>98630</v>
@@ -1864,7 +1884,7 @@
         <v>12500</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="48"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="8">
         <f t="shared" si="1"/>
         <v>139150</v>
@@ -1895,7 +1915,7 @@
         <v>25000</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="48"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="8">
         <f t="shared" si="1"/>
         <v>138680</v>
@@ -1926,7 +1946,7 @@
         <v>25000</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="48"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="8">
         <f t="shared" si="1"/>
         <v>121370</v>
@@ -1957,7 +1977,7 @@
         <v>25000</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="48"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="8">
         <f t="shared" si="1"/>
         <v>151000</v>
@@ -1988,7 +2008,7 @@
         <v>25000</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="48"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="8">
         <f t="shared" si="1"/>
         <v>105200</v>
@@ -2019,7 +2039,7 @@
         <v>25000</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="48"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="8">
         <f t="shared" si="1"/>
         <v>106040</v>
@@ -2050,7 +2070,7 @@
         <v>25000</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="48"/>
+      <c r="I27" s="45"/>
       <c r="J27" s="8">
         <f t="shared" si="1"/>
         <v>94000</v>
@@ -2081,7 +2101,7 @@
         <v>25000</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="48"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="8">
         <f t="shared" si="1"/>
         <v>116040</v>
@@ -2112,7 +2132,7 @@
         <v>25000</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="48"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="8">
         <f t="shared" si="1"/>
         <v>115400</v>
@@ -2143,7 +2163,7 @@
         <v>25000</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="48"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="8">
         <f t="shared" si="1"/>
         <v>114020</v>
@@ -2174,7 +2194,7 @@
         <v>25000</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="48"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="8">
         <f t="shared" si="1"/>
         <v>118640</v>
@@ -2205,7 +2225,7 @@
         <v>25000</v>
       </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="48"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="8">
         <f t="shared" si="1"/>
         <v>117330</v>
@@ -2236,7 +2256,7 @@
         <v>25000</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="48"/>
+      <c r="I33" s="45"/>
       <c r="J33" s="8">
         <f t="shared" si="1"/>
         <v>113180</v>
@@ -2267,7 +2287,7 @@
         <v>25000</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="48"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="8">
         <f t="shared" si="1"/>
         <v>133400</v>
@@ -2298,7 +2318,7 @@
         <v>25000</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="48"/>
+      <c r="I35" s="45"/>
       <c r="J35" s="8">
         <f t="shared" si="1"/>
         <v>99020</v>
@@ -2329,7 +2349,7 @@
         <v>25000</v>
       </c>
       <c r="H36" s="7"/>
-      <c r="I36" s="48"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="8">
         <f t="shared" si="1"/>
         <v>116040</v>
@@ -2360,7 +2380,7 @@
         <v>25000</v>
       </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="48"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="8">
         <f t="shared" si="1"/>
         <v>98630</v>
@@ -2391,7 +2411,7 @@
         <v>25000</v>
       </c>
       <c r="H38" s="7"/>
-      <c r="I38" s="48"/>
+      <c r="I38" s="45"/>
       <c r="J38" s="8">
         <f t="shared" si="1"/>
         <v>103020</v>
@@ -2422,7 +2442,7 @@
         <v>25000</v>
       </c>
       <c r="H39" s="7"/>
-      <c r="I39" s="48"/>
+      <c r="I39" s="45"/>
       <c r="J39" s="8">
         <f t="shared" si="1"/>
         <v>109520</v>
@@ -2453,7 +2473,7 @@
         <v>25000</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="48"/>
+      <c r="I40" s="45"/>
       <c r="J40" s="8">
         <f t="shared" si="1"/>
         <v>101160</v>
@@ -2484,7 +2504,7 @@
         <v>25000</v>
       </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="48"/>
+      <c r="I41" s="45"/>
       <c r="J41" s="8">
         <f t="shared" si="1"/>
         <v>120470</v>
@@ -2515,7 +2535,7 @@
         <v>25000</v>
       </c>
       <c r="H42" s="7"/>
-      <c r="I42" s="48"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="8">
         <f t="shared" si="1"/>
         <v>98120</v>
@@ -2546,7 +2566,7 @@
         <v>25000</v>
       </c>
       <c r="H43" s="7"/>
-      <c r="I43" s="48"/>
+      <c r="I43" s="45"/>
       <c r="J43" s="8">
         <f t="shared" si="1"/>
         <v>107600</v>
@@ -2577,7 +2597,7 @@
         <v>25000</v>
       </c>
       <c r="H44" s="7"/>
-      <c r="I44" s="48"/>
+      <c r="I44" s="45"/>
       <c r="J44" s="8">
         <f t="shared" si="1"/>
         <v>109900</v>
@@ -2608,7 +2628,7 @@
         <v>25000</v>
       </c>
       <c r="H45" s="7"/>
-      <c r="I45" s="48"/>
+      <c r="I45" s="45"/>
       <c r="J45" s="8">
         <f t="shared" si="1"/>
         <v>108380</v>
@@ -2639,7 +2659,7 @@
         <v>25000</v>
       </c>
       <c r="H46" s="7"/>
-      <c r="I46" s="48"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="8">
         <f t="shared" si="1"/>
         <v>109400</v>
@@ -2670,7 +2690,7 @@
         <v>25000</v>
       </c>
       <c r="H47" s="7"/>
-      <c r="I47" s="48"/>
+      <c r="I47" s="45"/>
       <c r="J47" s="8">
         <f t="shared" si="1"/>
         <v>103740</v>
@@ -2701,7 +2721,7 @@
         <v>25000</v>
       </c>
       <c r="H48" s="7"/>
-      <c r="I48" s="48"/>
+      <c r="I48" s="45"/>
       <c r="J48" s="8">
         <f t="shared" si="1"/>
         <v>104600</v>
@@ -2732,7 +2752,7 @@
         <v>25000</v>
       </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="48"/>
+      <c r="I49" s="45"/>
       <c r="J49" s="8">
         <f t="shared" si="1"/>
         <v>98600</v>
@@ -2763,7 +2783,7 @@
         <v>25000</v>
       </c>
       <c r="H50" s="7"/>
-      <c r="I50" s="48">
+      <c r="I50" s="45">
         <v>14237</v>
       </c>
       <c r="J50" s="8">
@@ -2797,7 +2817,7 @@
         <v>25000</v>
       </c>
       <c r="H51" s="7"/>
-      <c r="I51" s="48"/>
+      <c r="I51" s="45"/>
       <c r="J51" s="8">
         <f t="shared" si="1"/>
         <v>105650</v>
@@ -2828,7 +2848,7 @@
         <v>25000</v>
       </c>
       <c r="H52" s="7"/>
-      <c r="I52" s="48"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="8">
         <f t="shared" si="1"/>
         <v>96320</v>
@@ -2859,7 +2879,7 @@
         <v>25000</v>
       </c>
       <c r="H53" s="7"/>
-      <c r="I53" s="48"/>
+      <c r="I53" s="45"/>
       <c r="J53" s="8">
         <f t="shared" si="1"/>
         <v>108200</v>
@@ -2890,7 +2910,7 @@
         <v>25000</v>
       </c>
       <c r="H54" s="7"/>
-      <c r="I54" s="48"/>
+      <c r="I54" s="45"/>
       <c r="J54" s="8">
         <f t="shared" si="1"/>
         <v>124210</v>
@@ -2921,7 +2941,7 @@
         <v>25000</v>
       </c>
       <c r="H55" s="7"/>
-      <c r="I55" s="48">
+      <c r="I55" s="45">
         <v>14884</v>
       </c>
       <c r="J55" s="8">
@@ -2954,7 +2974,7 @@
         <v>25000</v>
       </c>
       <c r="H56" s="7"/>
-      <c r="I56" s="48"/>
+      <c r="I56" s="45"/>
       <c r="J56" s="8">
         <f t="shared" si="1"/>
         <v>110710</v>
@@ -2985,7 +3005,7 @@
         <v>25000</v>
       </c>
       <c r="H57" s="7"/>
-      <c r="I57" s="48">
+      <c r="I57" s="45">
         <v>1200</v>
       </c>
       <c r="J57" s="8">
@@ -3018,7 +3038,7 @@
         <v>25000</v>
       </c>
       <c r="H58" s="7"/>
-      <c r="I58" s="48">
+      <c r="I58" s="45">
         <v>22200</v>
       </c>
       <c r="J58" s="8">
@@ -3051,7 +3071,7 @@
         <v>25000</v>
       </c>
       <c r="H59" s="7"/>
-      <c r="I59" s="48"/>
+      <c r="I59" s="45"/>
       <c r="J59" s="8">
         <f t="shared" si="1"/>
         <v>106100</v>
@@ -3082,7 +3102,7 @@
         <v>25000</v>
       </c>
       <c r="H60" s="7"/>
-      <c r="I60" s="48"/>
+      <c r="I60" s="45"/>
       <c r="J60" s="8">
         <f t="shared" si="1"/>
         <v>119300</v>
@@ -3113,7 +3133,7 @@
         <v>25000</v>
       </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="48"/>
+      <c r="I61" s="45"/>
       <c r="J61" s="8">
         <f t="shared" si="1"/>
         <v>86210</v>
@@ -3144,7 +3164,7 @@
         <v>25000</v>
       </c>
       <c r="H62" s="7"/>
-      <c r="I62" s="48"/>
+      <c r="I62" s="45"/>
       <c r="J62" s="8">
         <f t="shared" si="1"/>
         <v>106950</v>
@@ -3175,7 +3195,7 @@
         <v>25000</v>
       </c>
       <c r="H63" s="7"/>
-      <c r="I63" s="48"/>
+      <c r="I63" s="45"/>
       <c r="J63" s="8">
         <f t="shared" si="1"/>
         <v>104870</v>
@@ -3206,7 +3226,7 @@
         <v>25000</v>
       </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="48"/>
+      <c r="I64" s="45"/>
       <c r="J64" s="8">
         <f t="shared" si="1"/>
         <v>93030</v>
@@ -3237,7 +3257,7 @@
         <v>25000</v>
       </c>
       <c r="H65" s="7"/>
-      <c r="I65" s="48"/>
+      <c r="I65" s="45"/>
       <c r="J65" s="8">
         <f t="shared" si="1"/>
         <v>111440</v>
@@ -3268,7 +3288,7 @@
         <v>25000</v>
       </c>
       <c r="H66" s="7"/>
-      <c r="I66" s="48"/>
+      <c r="I66" s="45"/>
       <c r="J66" s="8">
         <f t="shared" si="1"/>
         <v>101350</v>
@@ -3299,7 +3319,7 @@
         <v>25000</v>
       </c>
       <c r="H67" s="7"/>
-      <c r="I67" s="48"/>
+      <c r="I67" s="45"/>
       <c r="J67" s="8">
         <f t="shared" si="1"/>
         <v>104580</v>
@@ -3323,14 +3343,14 @@
         <v>350</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" ref="F68:F99" si="3">D68*E68</f>
+        <f t="shared" ref="F68:F70" si="3">D68*E68</f>
         <v>127050</v>
       </c>
       <c r="G68" s="7">
         <v>25000</v>
       </c>
       <c r="H68" s="7"/>
-      <c r="I68" s="48"/>
+      <c r="I68" s="45"/>
       <c r="J68" s="8">
         <f t="shared" ref="J68:J70" si="4">F68-G68-H68-I68</f>
         <v>102050</v>
@@ -3361,7 +3381,7 @@
         <v>25000</v>
       </c>
       <c r="H69" s="7"/>
-      <c r="I69" s="48"/>
+      <c r="I69" s="45"/>
       <c r="J69" s="8">
         <f t="shared" si="4"/>
         <v>78950</v>
@@ -3392,7 +3412,7 @@
         <v>25000</v>
       </c>
       <c r="H70" s="31"/>
-      <c r="I70" s="49"/>
+      <c r="I70" s="46"/>
       <c r="J70" s="32">
         <f t="shared" si="4"/>
         <v>114600</v>
@@ -3403,7 +3423,7 @@
     <row r="72" spans="1:11" ht="15.75" thickBot="1">
       <c r="J72" s="37">
         <f>SUM(J3:J71)</f>
-        <v>7574459</v>
+        <v>7452979</v>
       </c>
     </row>
   </sheetData>

--- a/Ofis Dosyalari/HAKEDISLER/2025/TEMMUZ 2025/2025 TEMMUZ AYI - AGREGA.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/TEMMUZ 2025/2025 TEMMUZ AYI - AGREGA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\TEMMUZ 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984B06E0-A905-44B3-8DAB-14D02EC1E25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BACEE3F-F4B8-418A-AD4D-05C28A1FBDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="630" windowWidth="28755" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -934,6 +934,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -943,7 +944,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal 2" xfId="3" xr:uid="{2DBF412A-52F2-4DDA-8EDC-0DB555BA7380}"/>
@@ -1231,8 +1231,8 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1251,19 +1251,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="15"/>
-      <c r="L7" s="56" t="s">
+      <c r="L7" s="53" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2782,13 +2782,15 @@
       <c r="G50" s="7">
         <v>25000</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="7">
+        <v>10000</v>
+      </c>
       <c r="I50" s="45">
         <v>14237</v>
       </c>
       <c r="J50" s="8">
         <f t="shared" si="1"/>
-        <v>51583</v>
+        <v>41583</v>
       </c>
       <c r="K50" s="44"/>
       <c r="L50" s="33"/>
@@ -3164,10 +3166,12 @@
         <v>25000</v>
       </c>
       <c r="H62" s="7"/>
-      <c r="I62" s="45"/>
+      <c r="I62" s="45">
+        <v>8200</v>
+      </c>
       <c r="J62" s="8">
         <f t="shared" si="1"/>
-        <v>106950</v>
+        <v>98750</v>
       </c>
       <c r="K62" s="15"/>
     </row>
@@ -3423,7 +3427,7 @@
     <row r="72" spans="1:11" ht="15.75" thickBot="1">
       <c r="J72" s="37">
         <f>SUM(J3:J71)</f>
-        <v>7452979</v>
+        <v>7434779</v>
       </c>
     </row>
   </sheetData>

--- a/Ofis Dosyalari/HAKEDISLER/2025/TEMMUZ 2025/2025 TEMMUZ AYI - AGREGA.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/TEMMUZ 2025/2025 TEMMUZ AYI - AGREGA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\TEMMUZ 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BACEE3F-F4B8-418A-AD4D-05C28A1FBDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D44052-9F0D-4F1D-B7DC-B338998BF95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="630" windowWidth="28755" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>№</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>HAZIRAN TEMMUZ AGUSTOS HESABI KESILDI</t>
+  </si>
+  <si>
+    <t>AVANS2</t>
   </si>
 </sst>
 </file>
@@ -780,7 +783,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -882,12 +885,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -935,6 +932,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1228,11 +1234,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1244,28 +1250,30 @@
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
       <c r="K1" s="56"/>
-    </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1">
+      <c r="L1" s="57"/>
+    </row>
+    <row r="2" spans="1:13" ht="30.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,56 +1283,60 @@
       <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49">
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47">
         <v>200000</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52">
-        <f>F3-G3-H3-I3</f>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50">
+        <f>F3-G3-H3-J3-I3</f>
         <v>200000</v>
       </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1350,14 +1362,15 @@
       <c r="H4" s="7">
         <v>850</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="8">
-        <f t="shared" ref="J4:J67" si="1">F4-G4-H4-I4</f>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="8">
+        <f t="shared" ref="K4:K67" si="1">F4-G4-H4-J4-I4</f>
         <v>78310</v>
       </c>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1381,16 +1394,17 @@
         <v>25000</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="45">
+      <c r="I5" s="43"/>
+      <c r="J5" s="43">
         <v>1200</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <f t="shared" si="1"/>
         <v>104590</v>
       </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1414,14 +1428,15 @@
         <v>25000</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="8">
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
         <v>137770</v>
       </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1445,19 +1460,20 @@
         <v>25000</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="45">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
         <v>101480</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="15"/>
+      <c r="M7" s="51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1483,14 +1499,15 @@
       <c r="H8" s="7">
         <v>5000</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="8">
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="8">
         <f t="shared" si="1"/>
         <v>116700</v>
       </c>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1514,14 +1531,15 @@
         <v>25000</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="8">
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="8">
         <f t="shared" si="1"/>
         <v>138590</v>
       </c>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1545,14 +1563,15 @@
         <v>12500</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="8">
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="8">
         <f t="shared" si="1"/>
         <v>145450</v>
       </c>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1578,14 +1597,15 @@
       <c r="H11" s="7">
         <v>15000</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="8">
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="8">
         <f t="shared" si="1"/>
         <v>111800</v>
       </c>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1609,14 +1629,15 @@
         <v>25000</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="8">
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="8">
         <f t="shared" si="1"/>
         <v>93320</v>
       </c>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1640,14 +1661,15 @@
         <v>25000</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="8">
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="8">
         <f t="shared" si="1"/>
         <v>121200</v>
       </c>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1671,14 +1693,15 @@
         <v>25000</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="8">
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="8">
         <f t="shared" si="1"/>
         <v>125360</v>
       </c>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1700,14 +1723,15 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="8">
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="8">
         <f t="shared" si="1"/>
         <v>170000</v>
       </c>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -1731,14 +1755,15 @@
         <v>25000</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="8">
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="8">
         <f t="shared" si="1"/>
         <v>118090</v>
       </c>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1762,14 +1787,15 @@
         <v>25000</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="8">
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="8">
         <f t="shared" si="1"/>
         <v>105050</v>
       </c>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1791,14 +1817,15 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="8">
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="8">
         <f t="shared" si="1"/>
         <v>154800</v>
       </c>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -1822,14 +1849,15 @@
         <v>25000</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="8">
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="8">
         <f t="shared" si="1"/>
         <v>113990</v>
       </c>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1853,14 +1881,15 @@
         <v>25000</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="8">
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="8">
         <f t="shared" si="1"/>
         <v>98630</v>
       </c>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1884,14 +1913,15 @@
         <v>12500</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="8">
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="8">
         <f t="shared" si="1"/>
         <v>139150</v>
       </c>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1915,14 +1945,15 @@
         <v>25000</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="8">
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="8">
         <f t="shared" si="1"/>
         <v>138680</v>
       </c>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1946,14 +1977,15 @@
         <v>25000</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="8">
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="8">
         <f t="shared" si="1"/>
         <v>121370</v>
       </c>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1977,14 +2009,15 @@
         <v>25000</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="8">
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="8">
         <f t="shared" si="1"/>
         <v>151000</v>
       </c>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -2008,14 +2041,15 @@
         <v>25000</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="8">
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="8">
         <f t="shared" si="1"/>
         <v>105200</v>
       </c>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2039,14 +2073,15 @@
         <v>25000</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="8">
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="8">
         <f t="shared" si="1"/>
         <v>106040</v>
       </c>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="27" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -2070,14 +2105,15 @@
         <v>25000</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="8">
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="8">
         <f t="shared" si="1"/>
         <v>94000</v>
       </c>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -2101,14 +2137,15 @@
         <v>25000</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="8">
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="8">
         <f t="shared" si="1"/>
         <v>116040</v>
       </c>
-      <c r="K28" s="15"/>
-    </row>
-    <row r="29" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2132,14 +2169,15 @@
         <v>25000</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="8">
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="8">
         <f t="shared" si="1"/>
         <v>115400</v>
       </c>
-      <c r="K29" s="15"/>
-    </row>
-    <row r="30" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2163,14 +2201,15 @@
         <v>25000</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="8">
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="8">
         <f t="shared" si="1"/>
         <v>114020</v>
       </c>
-      <c r="K30" s="15"/>
-    </row>
-    <row r="31" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -2194,14 +2233,15 @@
         <v>25000</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="8">
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="8">
         <f t="shared" si="1"/>
         <v>118640</v>
       </c>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2225,14 +2265,15 @@
         <v>25000</v>
       </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="8">
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="8">
         <f t="shared" si="1"/>
         <v>117330</v>
       </c>
-      <c r="K32" s="15"/>
-    </row>
-    <row r="33" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2256,14 +2297,15 @@
         <v>25000</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="8">
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="8">
         <f t="shared" si="1"/>
         <v>113180</v>
       </c>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -2287,14 +2329,15 @@
         <v>25000</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="8">
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="8">
         <f t="shared" si="1"/>
         <v>133400</v>
       </c>
-      <c r="K34" s="15"/>
-    </row>
-    <row r="35" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2318,14 +2361,15 @@
         <v>25000</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="8">
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="8">
         <f t="shared" si="1"/>
         <v>99020</v>
       </c>
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L35" s="15"/>
+    </row>
+    <row r="36" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2349,14 +2393,15 @@
         <v>25000</v>
       </c>
       <c r="H36" s="7"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="8">
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="8">
         <f t="shared" si="1"/>
         <v>116040</v>
       </c>
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L36" s="15"/>
+    </row>
+    <row r="37" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -2380,14 +2425,15 @@
         <v>25000</v>
       </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="8">
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="8">
         <f t="shared" si="1"/>
         <v>98630</v>
       </c>
-      <c r="K37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L37" s="15"/>
+    </row>
+    <row r="38" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2411,14 +2457,15 @@
         <v>25000</v>
       </c>
       <c r="H38" s="7"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="8">
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="8">
         <f t="shared" si="1"/>
         <v>103020</v>
       </c>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L38" s="15"/>
+    </row>
+    <row r="39" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2442,14 +2489,15 @@
         <v>25000</v>
       </c>
       <c r="H39" s="7"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="8">
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="8">
         <f t="shared" si="1"/>
         <v>109520</v>
       </c>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L39" s="15"/>
+    </row>
+    <row r="40" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -2473,14 +2521,15 @@
         <v>25000</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="8">
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="8">
         <f t="shared" si="1"/>
         <v>101160</v>
       </c>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2504,14 +2553,15 @@
         <v>25000</v>
       </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="8">
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="8">
         <f t="shared" si="1"/>
         <v>120470</v>
       </c>
-      <c r="K41" s="15"/>
-    </row>
-    <row r="42" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L41" s="15"/>
+    </row>
+    <row r="42" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -2535,14 +2585,15 @@
         <v>25000</v>
       </c>
       <c r="H42" s="7"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="8">
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="8">
         <f t="shared" si="1"/>
         <v>98120</v>
       </c>
-      <c r="K42" s="15"/>
-    </row>
-    <row r="43" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L42" s="15"/>
+    </row>
+    <row r="43" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -2566,14 +2617,15 @@
         <v>25000</v>
       </c>
       <c r="H43" s="7"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="8">
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="8">
         <f t="shared" si="1"/>
         <v>107600</v>
       </c>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -2597,14 +2649,15 @@
         <v>25000</v>
       </c>
       <c r="H44" s="7"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="8">
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="8">
         <f t="shared" si="1"/>
         <v>109900</v>
       </c>
-      <c r="K44" s="15"/>
-    </row>
-    <row r="45" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L44" s="15"/>
+    </row>
+    <row r="45" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -2628,14 +2681,15 @@
         <v>25000</v>
       </c>
       <c r="H45" s="7"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="8">
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="8">
         <f t="shared" si="1"/>
         <v>108380</v>
       </c>
-      <c r="K45" s="15"/>
-    </row>
-    <row r="46" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L45" s="15"/>
+    </row>
+    <row r="46" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="10">
         <v>44</v>
       </c>
@@ -2659,14 +2713,15 @@
         <v>25000</v>
       </c>
       <c r="H46" s="7"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="8">
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="8">
         <f t="shared" si="1"/>
         <v>109400</v>
       </c>
-      <c r="K46" s="15"/>
-    </row>
-    <row r="47" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -2690,14 +2745,15 @@
         <v>25000</v>
       </c>
       <c r="H47" s="7"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="8">
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="8">
         <f t="shared" si="1"/>
         <v>103740</v>
       </c>
-      <c r="K47" s="15"/>
-    </row>
-    <row r="48" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -2721,14 +2777,15 @@
         <v>25000</v>
       </c>
       <c r="H48" s="7"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="8">
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="8">
         <f t="shared" si="1"/>
         <v>104600</v>
       </c>
-      <c r="K48" s="15"/>
-    </row>
-    <row r="49" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L48" s="15"/>
+    </row>
+    <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -2752,27 +2809,28 @@
         <v>25000</v>
       </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="8">
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="8">
         <f t="shared" si="1"/>
         <v>98600</v>
       </c>
-      <c r="K49" s="15"/>
-    </row>
-    <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L49" s="15"/>
+    </row>
+    <row r="50" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="40">
+      <c r="B50" s="38">
         <v>367</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="42">
+      <c r="D50" s="40">
         <v>239</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="41">
         <v>380</v>
       </c>
       <c r="F50" s="6">
@@ -2785,17 +2843,20 @@
       <c r="H50" s="7">
         <v>10000</v>
       </c>
-      <c r="I50" s="45">
+      <c r="I50" s="43">
+        <v>10000</v>
+      </c>
+      <c r="J50" s="43">
         <v>14237</v>
       </c>
-      <c r="J50" s="8">
-        <f t="shared" si="1"/>
-        <v>41583</v>
-      </c>
-      <c r="K50" s="44"/>
-      <c r="L50" s="33"/>
-    </row>
-    <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="K50" s="8">
+        <f t="shared" si="1"/>
+        <v>31583</v>
+      </c>
+      <c r="L50" s="42"/>
+      <c r="M50" s="33"/>
+    </row>
+    <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -2819,14 +2880,15 @@
         <v>25000</v>
       </c>
       <c r="H51" s="7"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="8">
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="8">
         <f t="shared" si="1"/>
         <v>105650</v>
       </c>
-      <c r="K51" s="15"/>
-    </row>
-    <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L51" s="15"/>
+    </row>
+    <row r="52" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -2850,14 +2912,15 @@
         <v>25000</v>
       </c>
       <c r="H52" s="7"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="8">
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="8">
         <f t="shared" si="1"/>
         <v>96320</v>
       </c>
-      <c r="K52" s="15"/>
-    </row>
-    <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L52" s="15"/>
+    </row>
+    <row r="53" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -2881,14 +2944,15 @@
         <v>25000</v>
       </c>
       <c r="H53" s="7"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="8">
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="8">
         <f t="shared" si="1"/>
         <v>108200</v>
       </c>
-      <c r="K53" s="15"/>
-    </row>
-    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L53" s="15"/>
+    </row>
+    <row r="54" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -2912,14 +2976,15 @@
         <v>25000</v>
       </c>
       <c r="H54" s="7"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="8">
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="8">
         <f t="shared" si="1"/>
         <v>124210</v>
       </c>
-      <c r="K54" s="15"/>
-    </row>
-    <row r="55" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L54" s="15"/>
+    </row>
+    <row r="55" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="10">
         <v>53</v>
       </c>
@@ -2943,16 +3008,17 @@
         <v>25000</v>
       </c>
       <c r="H55" s="7"/>
-      <c r="I55" s="45">
+      <c r="I55" s="43"/>
+      <c r="J55" s="43">
         <v>14884</v>
       </c>
-      <c r="J55" s="8">
+      <c r="K55" s="8">
         <f t="shared" si="1"/>
         <v>79056</v>
       </c>
-      <c r="K55" s="15"/>
-    </row>
-    <row r="56" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L55" s="15"/>
+    </row>
+    <row r="56" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -2976,14 +3042,15 @@
         <v>25000</v>
       </c>
       <c r="H56" s="7"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="8">
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="8">
         <f t="shared" si="1"/>
         <v>110710</v>
       </c>
-      <c r="K56" s="15"/>
-    </row>
-    <row r="57" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L56" s="15"/>
+    </row>
+    <row r="57" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -3007,16 +3074,17 @@
         <v>25000</v>
       </c>
       <c r="H57" s="7"/>
-      <c r="I57" s="45">
+      <c r="I57" s="43"/>
+      <c r="J57" s="43">
         <v>1200</v>
       </c>
-      <c r="J57" s="8">
+      <c r="K57" s="8">
         <f t="shared" si="1"/>
         <v>106420</v>
       </c>
-      <c r="K57" s="15"/>
-    </row>
-    <row r="58" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L57" s="15"/>
+    </row>
+    <row r="58" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -3040,16 +3108,17 @@
         <v>25000</v>
       </c>
       <c r="H58" s="7"/>
-      <c r="I58" s="45">
+      <c r="I58" s="43"/>
+      <c r="J58" s="43">
         <v>22200</v>
       </c>
-      <c r="J58" s="8">
+      <c r="K58" s="8">
         <f t="shared" si="1"/>
         <v>36100</v>
       </c>
-      <c r="K58" s="15"/>
-    </row>
-    <row r="59" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L58" s="15"/>
+    </row>
+    <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -3073,14 +3142,15 @@
         <v>25000</v>
       </c>
       <c r="H59" s="7"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="8">
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="8">
         <f t="shared" si="1"/>
         <v>106100</v>
       </c>
-      <c r="K59" s="15"/>
-    </row>
-    <row r="60" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L59" s="15"/>
+    </row>
+    <row r="60" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -3104,14 +3174,15 @@
         <v>25000</v>
       </c>
       <c r="H60" s="7"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="8">
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="8">
         <f t="shared" si="1"/>
         <v>119300</v>
       </c>
-      <c r="K60" s="15"/>
-    </row>
-    <row r="61" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L60" s="15"/>
+    </row>
+    <row r="61" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="10">
         <v>59</v>
       </c>
@@ -3135,14 +3206,15 @@
         <v>25000</v>
       </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="8">
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="8">
         <f t="shared" si="1"/>
         <v>86210</v>
       </c>
-      <c r="K61" s="15"/>
-    </row>
-    <row r="62" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L61" s="15"/>
+    </row>
+    <row r="62" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -3166,16 +3238,17 @@
         <v>25000</v>
       </c>
       <c r="H62" s="7"/>
-      <c r="I62" s="45">
+      <c r="I62" s="43"/>
+      <c r="J62" s="43">
         <v>8200</v>
       </c>
-      <c r="J62" s="8">
+      <c r="K62" s="8">
         <f t="shared" si="1"/>
         <v>98750</v>
       </c>
-      <c r="K62" s="15"/>
-    </row>
-    <row r="63" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L62" s="15"/>
+    </row>
+    <row r="63" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -3199,14 +3272,15 @@
         <v>25000</v>
       </c>
       <c r="H63" s="7"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="8">
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="8">
         <f t="shared" si="1"/>
         <v>104870</v>
       </c>
-      <c r="K63" s="15"/>
-    </row>
-    <row r="64" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="L63" s="15"/>
+    </row>
+    <row r="64" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="10">
         <v>62</v>
       </c>
@@ -3230,14 +3304,15 @@
         <v>25000</v>
       </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="8">
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="8">
         <f t="shared" si="1"/>
         <v>93030</v>
       </c>
-      <c r="K64" s="15"/>
-    </row>
-    <row r="65" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L64" s="15"/>
+    </row>
+    <row r="65" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -3261,14 +3336,15 @@
         <v>25000</v>
       </c>
       <c r="H65" s="7"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="8">
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="8">
         <f t="shared" si="1"/>
         <v>111440</v>
       </c>
-      <c r="K65" s="15"/>
-    </row>
-    <row r="66" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L65" s="15"/>
+    </row>
+    <row r="66" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -3292,14 +3368,15 @@
         <v>25000</v>
       </c>
       <c r="H66" s="7"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="8">
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="8">
         <f t="shared" si="1"/>
         <v>101350</v>
       </c>
-      <c r="K66" s="15"/>
-    </row>
-    <row r="67" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L66" s="15"/>
+    </row>
+    <row r="67" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="10">
         <v>65</v>
       </c>
@@ -3323,14 +3400,15 @@
         <v>25000</v>
       </c>
       <c r="H67" s="7"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="8">
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="8">
         <f t="shared" si="1"/>
         <v>104580</v>
       </c>
-      <c r="K67" s="15"/>
-    </row>
-    <row r="68" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L67" s="15"/>
+    </row>
+    <row r="68" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -3354,14 +3432,15 @@
         <v>25000</v>
       </c>
       <c r="H68" s="7"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="8">
-        <f t="shared" ref="J68:J70" si="4">F68-G68-H68-I68</f>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="8">
+        <f t="shared" ref="K68:K70" si="4">F68-G68-H68-J68-I68</f>
         <v>102050</v>
       </c>
-      <c r="K68" s="15"/>
-    </row>
-    <row r="69" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="L68" s="15"/>
+    </row>
+    <row r="69" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -3385,14 +3464,15 @@
         <v>25000</v>
       </c>
       <c r="H69" s="7"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="8">
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="8">
         <f t="shared" si="4"/>
         <v>78950</v>
       </c>
-      <c r="K69" s="15"/>
-    </row>
-    <row r="70" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="L69" s="15"/>
+    </row>
+    <row r="70" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A70" s="25">
         <v>68</v>
       </c>
@@ -3416,23 +3496,24 @@
         <v>25000</v>
       </c>
       <c r="H70" s="31"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="32">
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="32">
         <f t="shared" si="4"/>
         <v>114600</v>
       </c>
-      <c r="K70" s="26"/>
-    </row>
-    <row r="71" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1"/>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1">
-      <c r="J72" s="37">
-        <f>SUM(J3:J71)</f>
-        <v>7434779</v>
+      <c r="L70" s="26"/>
+    </row>
+    <row r="71" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1"/>
+    <row r="72" spans="1:12" ht="15.75" thickBot="1">
+      <c r="K72" s="35">
+        <f>SUM(K3:K71)</f>
+        <v>7424779</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
